--- a/archivos/LibroCompras.xlsx
+++ b/archivos/LibroCompras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nodejs\apifact\src\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7902EF14-474F-4A6C-B401-609265BF3084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AD160-9DAC-4A51-8A38-846E8E9BC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6BA1C-65FD-4BAC-A2F0-83AD3B05947F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6BA1C-65FD-4BAC-A2F0-83AD3B05947F}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro de compras" sheetId="1" r:id="rId1"/>
@@ -342,12 +342,6 @@
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,33 +374,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,18 +389,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,18 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +487,57 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28CF2C6-5D7B-47F1-BDE9-A25B948555EF}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,648 +903,648 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="65" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="66"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="49"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="49"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="49"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="49"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="49"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="49"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="49"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="49"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="49"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="49"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="49"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="49"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="49"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="49"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="49"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="49"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="49"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="49"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="49"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="52">
         <f t="shared" ref="G26:P26" si="0">SUM(G6:G13)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="70">
+      <c r="L26" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="70">
+      <c r="M26" s="53">
         <f>SUM(M6:M25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="70">
+      <c r="N26" s="53">
         <f>SUM(N6:N15)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="70">
+      <c r="O26" s="53">
         <f>SUM(O6:O15)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="72">
+      <c r="P26" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/archivos/LibroCompras.xlsx
+++ b/archivos/LibroCompras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nodejs\apifact\src\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AD160-9DAC-4A51-8A38-846E8E9BC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5F97A-4C68-4BCF-9580-2A4DDF9ECE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6BA1C-65FD-4BAC-A2F0-83AD3B05947F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6BA1C-65FD-4BAC-A2F0-83AD3B05947F}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro de compras" sheetId="1" r:id="rId1"/>
@@ -876,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28CF2C6-5D7B-47F1-BDE9-A25B948555EF}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -1151,13 +1151,13 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="40"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="28"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -1170,8 +1170,8 @@
       <c r="A12" s="25"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -1187,9 +1187,9 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1205,9 +1205,9 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="27"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1216,15 +1216,15 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="41"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="37"/>
       <c r="F15" s="27"/>
       <c r="G15" s="28"/>
@@ -1241,35 +1241,35 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="31"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="47"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="28"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
-      <c r="M17" s="48"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="32"/>
@@ -1278,16 +1278,16 @@
       <c r="A18" s="25"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="47"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="28"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
-      <c r="M18" s="48"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="32"/>
@@ -1296,34 +1296,34 @@
       <c r="A19" s="25"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="47"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="28"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
-      <c r="M19" s="48"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="47"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="28"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="48"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="32"/>
@@ -1331,17 +1331,17 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="47"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="28"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
-      <c r="M21" s="48"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
       <c r="P21" s="32"/>
@@ -1351,33 +1351,33 @@
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="47"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="28"/>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
-      <c r="M22" s="48"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="47"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="28"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
-      <c r="M23" s="48"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
       <c r="P23" s="32"/>
@@ -1385,166 +1385,346 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="47"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="28"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="30"/>
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="47"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="28"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
-      <c r="M25" s="48"/>
+      <c r="M25" s="31"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="52">
-        <f t="shared" ref="G26:P26" si="0">SUM(G6:G13)</f>
+      <c r="G36" s="52">
+        <f t="shared" ref="G36:P36" si="0">SUM(G6:G23)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H36" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J36" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="53">
-        <f>SUM(M6:M25)</f>
+      <c r="M36" s="53">
+        <f>SUM(M6:M35)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="53">
-        <f>SUM(N6:N15)</f>
+      <c r="N36" s="53">
+        <f>SUM(N6:N25)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="53">
-        <f>SUM(O6:O15)</f>
+      <c r="O36" s="53">
+        <f>SUM(O6:O25)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P36" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1560,15 +1740,15 @@
     <mergeCell ref="L3:L5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="E6:E16" xr:uid="{B0407506-B9CE-4281-A952-ED569E8815A9}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="E6:E26" xr:uid="{B0407506-B9CE-4281-A952-ED569E8815A9}">
       <formula1>18</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="F6:F16" xr:uid="{42F9C999-0477-49FD-B372-D69B2A7DF147}"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="SERIE DEL DOCUMENTO_x000a_MAXIMO DE 8 CARACTERES_x000a_alfanumérica, corresponderá al número de serie autorizado por la Administración Tributaria, letra mayúscula cuando aplique. (Ejemplo:00SD000C)._x000a_" sqref="C6:C16" xr:uid="{8EC6E168-8243-4A32-A428-C4786D80AA14}">
+    <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="F6:F26" xr:uid="{42F9C999-0477-49FD-B372-D69B2A7DF147}"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="SERIE DEL DOCUMENTO_x000a_MAXIMO DE 8 CARACTERES_x000a_alfanumérica, corresponderá al número de serie autorizado por la Administración Tributaria, letra mayúscula cuando aplique. (Ejemplo:00SD000C)._x000a_" sqref="C6:C26" xr:uid="{8EC6E168-8243-4A32-A428-C4786D80AA14}">
       <formula1>101</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="B6:B16" xr:uid="{C9601A36-D765-4717-8332-7C6D0AD40D75}"/>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="M6:M16" xr:uid="{112EEB40-B49A-4AF7-9530-AAEBEBD13CAB}">
+    <dataValidation errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="B6:B26" xr:uid="{C9601A36-D765-4717-8332-7C6D0AD40D75}"/>
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="M6:M26" xr:uid="{112EEB40-B49A-4AF7-9530-AAEBEBD13CAB}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/archivos/LibroCompras.xlsx
+++ b/archivos/LibroCompras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nodejs\apifact\src\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5F97A-4C68-4BCF-9580-2A4DDF9ECE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63EE7DF-8017-453B-B656-499E8D577B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6BA1C-65FD-4BAC-A2F0-83AD3B05947F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6BA1C-65FD-4BAC-A2F0-83AD3B05947F}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro de compras" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>SEPTIEMBRE</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>RICARDO MAURICIO VASQUEZ</t>
+  </si>
+  <si>
+    <t>ARNECOM DE EL SALVADOR S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>LIBRO DE COMPRAS</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +544,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -876,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28CF2C6-5D7B-47F1-BDE9-A25B948555EF}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,205 +911,209 @@
     <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P5" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="66"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="66"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="13" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="66"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="32"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="29"/>
@@ -1117,7 +1130,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="37"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -1125,7 +1138,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="32"/>
@@ -1135,8 +1148,8 @@
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="29"/>
@@ -1312,10 +1325,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1331,13 +1344,13 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="40"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="28"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
@@ -1348,9 +1361,9 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
       <c r="G22" s="28"/>
@@ -1373,7 +1386,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="28"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -1385,7 +1398,7 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="39"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="27"/>
@@ -1396,7 +1409,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="31"/>
-      <c r="N24" s="41"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="30"/>
       <c r="P24" s="32"/>
     </row>
@@ -1405,7 +1418,7 @@
       <c r="B25" s="24"/>
       <c r="C25" s="39"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -1425,31 +1438,31 @@
       <c r="D26" s="25"/>
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="44"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="47"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="28"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="48"/>
+      <c r="M27" s="31"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
       <c r="P27" s="32"/>
@@ -1457,19 +1470,19 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="44"/>
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1477,7 +1490,7 @@
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="45"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="46"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -1546,10 +1559,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="49"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="50"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="46"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -1582,10 +1595,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="45"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="46"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -1600,98 +1613,96 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="49"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="32"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="52">
-        <f t="shared" ref="G36:P36" si="0">SUM(G6:G23)</f>
+      <c r="G38" s="52">
+        <f t="shared" ref="G38:P38" si="0">SUM(G8:G25)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="52">
+      <c r="H38" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I38" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J38" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K38" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L38" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="53">
-        <f>SUM(M6:M35)</f>
+      <c r="M38" s="53">
+        <f>SUM(M8:M37)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="53">
-        <f>SUM(N6:N25)</f>
+      <c r="N38" s="53">
+        <f>SUM(N8:N27)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="53">
-        <f>SUM(O6:O25)</f>
+      <c r="O38" s="53">
+        <f>SUM(O8:O27)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="55">
+      <c r="P38" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-    </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
-        <v>31</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1705,15 +1716,11 @@
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
-        <v>32</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58" t="s">
-        <v>33</v>
-      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1726,29 +1733,73 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="E6:E26" xr:uid="{B0407506-B9CE-4281-A952-ED569E8815A9}">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="E8:E28" xr:uid="{B0407506-B9CE-4281-A952-ED569E8815A9}">
       <formula1>18</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="F6:F26" xr:uid="{42F9C999-0477-49FD-B372-D69B2A7DF147}"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="SERIE DEL DOCUMENTO_x000a_MAXIMO DE 8 CARACTERES_x000a_alfanumérica, corresponderá al número de serie autorizado por la Administración Tributaria, letra mayúscula cuando aplique. (Ejemplo:00SD000C)._x000a_" sqref="C6:C26" xr:uid="{8EC6E168-8243-4A32-A428-C4786D80AA14}">
+    <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="F8:F28" xr:uid="{42F9C999-0477-49FD-B372-D69B2A7DF147}"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="SERIE DEL DOCUMENTO_x000a_MAXIMO DE 8 CARACTERES_x000a_alfanumérica, corresponderá al número de serie autorizado por la Administración Tributaria, letra mayúscula cuando aplique. (Ejemplo:00SD000C)._x000a_" sqref="C8:C28" xr:uid="{8EC6E168-8243-4A32-A428-C4786D80AA14}">
       <formula1>101</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="B6:B26" xr:uid="{C9601A36-D765-4717-8332-7C6D0AD40D75}"/>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="M6:M26" xr:uid="{112EEB40-B49A-4AF7-9530-AAEBEBD13CAB}">
+    <dataValidation errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="B8:B28" xr:uid="{C9601A36-D765-4717-8332-7C6D0AD40D75}"/>
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="M8:M28" xr:uid="{112EEB40-B49A-4AF7-9530-AAEBEBD13CAB}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/archivos/LibroCompras.xlsx
+++ b/archivos/LibroCompras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nodejs\apifact\src\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8FFA5-3A01-4983-A26C-2CAE7BA445B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B626DB6B-7530-4597-9D27-F3BFCD68F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="7" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>IMPORTACIONES GRAVADAS DE SERVICIOS</t>
   </si>
   <si>
-    <t>NOMBRE DEL CONTRIBUYENTE</t>
-  </si>
-  <si>
     <t>Nombre y firma del contador</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>MES: SEPTIEMBRE 2024</t>
+  </si>
+  <si>
+    <t>Arnecom de El Salvador SA de CV</t>
   </si>
 </sst>
 </file>
@@ -761,6 +761,27 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,9 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,25 +803,7 @@
     <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U65" sqref="U65"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1197,104 +1197,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="A1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
     </row>
     <row r="5" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1320,11 +1320,11 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1345,43 +1345,43 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="21" t="s">
         <v>10</v>
       </c>
@@ -1391,32 +1391,32 @@
       <c r="R7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="14" t="s">
         <v>18</v>
       </c>
@@ -1432,9 +1432,9 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -2150,16 +2150,16 @@
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="A40" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="4">
         <f>SUM(I9:I38)</f>
         <v>0</v>
@@ -2470,10 +2470,10 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="18"/>
+      <c r="D52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="25"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
@@ -2493,14 +2493,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A1:U1"/>
@@ -2517,6 +2509,14 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="SERIE DEL DOCUMENTO_x000a_MAXIMO DE 8 CARACTERES_x000a_alfanumérica, corresponderá al número de serie autorizado por la Administración Tributaria, letra mayúscula cuando aplique. (Ejemplo:00SD000C)._x000a_" sqref="E9:E37" xr:uid="{AA47E80E-64E9-4490-B84C-9FFED2FD65A7}">
